--- a/data/trans_dic/DC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 26,42</t>
+          <t>11,5; 25,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 16,56</t>
+          <t>5,92; 16,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 15,0</t>
+          <t>4,16; 15,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,52; 34,68</t>
+          <t>19,12; 35,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 25,88</t>
+          <t>12,59; 26,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 30,68</t>
+          <t>14,77; 31,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 24,87</t>
+          <t>10,36; 24,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,91; 46,63</t>
+          <t>32,39; 46,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 23,84</t>
+          <t>13,8; 24,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 21,57</t>
+          <t>11,68; 21,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 17,77</t>
+          <t>8,81; 17,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 40,03</t>
+          <t>29,34; 39,27</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,4</t>
+          <t>12,58; 18,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,44</t>
+          <t>9,59; 15,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,77</t>
+          <t>6,1; 10,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,04</t>
+          <t>18,99; 25,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 24,78</t>
+          <t>17,98; 24,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 23,43</t>
+          <t>16,88; 23,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,58</t>
+          <t>14,31; 20,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 39,44</t>
+          <t>30,35; 39,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,43</t>
+          <t>15,92; 20,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 18,51</t>
+          <t>14,23; 18,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,6; 14,87</t>
+          <t>10,81; 14,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,53; 31,95</t>
+          <t>26,49; 31,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,43</t>
+          <t>11,1; 15,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,96</t>
+          <t>8,83; 12,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,04</t>
+          <t>6,44; 10,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 21,82</t>
+          <t>15,28; 21,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,87</t>
+          <t>19,52; 25,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 20,93</t>
+          <t>15,91; 20,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,62</t>
+          <t>12,0; 16,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,81; 41,28</t>
+          <t>35,86; 41,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 19,59</t>
+          <t>15,93; 19,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 16,29</t>
+          <t>13,05; 16,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,59</t>
+          <t>9,82; 12,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 30,88</t>
+          <t>26,15; 30,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,67</t>
+          <t>17,44; 23,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,64</t>
+          <t>5,72; 9,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,59</t>
+          <t>5,84; 9,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,6</t>
+          <t>20,06; 26,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,95; 29,76</t>
+          <t>23,25; 29,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 23,7</t>
+          <t>17,47; 23,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,75</t>
+          <t>9,22; 13,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,11; 66,69</t>
+          <t>39,89; 65,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 25,68</t>
+          <t>21,37; 25,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 15,98</t>
+          <t>12,31; 15,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,17</t>
+          <t>8,17; 11,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,58; 50,15</t>
+          <t>31,48; 51,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,09</t>
+          <t>15,15; 19,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,18</t>
+          <t>7,4; 11,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,36</t>
+          <t>8,17; 12,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,52; 26,01</t>
+          <t>20,35; 26,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,1</t>
+          <t>22,08; 27,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,74</t>
+          <t>18,85; 23,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,25</t>
+          <t>15,45; 20,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,11; 41,15</t>
+          <t>35,38; 41,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,52; 23,08</t>
+          <t>19,46; 23,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,88; 17,04</t>
+          <t>13,78; 17,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 15,69</t>
+          <t>12,66; 15,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,29; 33,77</t>
+          <t>29,12; 33,51</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,17; 17,86</t>
+          <t>15,06; 17,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,93</t>
+          <t>8,84; 10,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,69</t>
+          <t>7,69; 9,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,46</t>
+          <t>20,1; 23,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,19</t>
+          <t>21,84; 24,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,46</t>
+          <t>18,87; 21,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,89; 16,36</t>
+          <t>13,94; 16,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,18</t>
+          <t>37,94; 46,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,87; 20,89</t>
+          <t>19,02; 20,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,91</t>
+          <t>14,17; 15,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 12,75</t>
+          <t>11,15; 12,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,07; 35,13</t>
+          <t>30,03; 35,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 25,45</t>
+          <t>11,66; 26,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 16,59</t>
+          <t>5,94; 16,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 15,48</t>
+          <t>4,22; 15,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 26,63</t>
+          <t>12,87; 26,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,77; 31,08</t>
+          <t>15,29; 31,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 24,78</t>
+          <t>10,68; 25,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,8; 24,05</t>
+          <t>13,79; 23,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 21,52</t>
+          <t>11,59; 21,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,27</t>
+          <t>8,42; 17,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,31</t>
+          <t>12,29; 18,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 15,17</t>
+          <t>9,79; 15,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,88</t>
+          <t>6,09; 10,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,73</t>
+          <t>17,79; 24,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,6</t>
+          <t>16,66; 23,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 20,61</t>
+          <t>14,2; 20,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 20,37</t>
+          <t>16,03; 20,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 18,55</t>
+          <t>13,89; 18,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,81</t>
+          <t>10,96; 15,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,54</t>
+          <t>11,03; 15,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,8</t>
+          <t>8,87; 12,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 10,12</t>
+          <t>6,6; 10,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,52; 25,08</t>
+          <t>19,07; 25,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 20,9</t>
+          <t>16,04; 21,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,37</t>
+          <t>12,03; 16,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,38</t>
+          <t>16,0; 19,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 16,37</t>
+          <t>12,96; 16,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 12,85</t>
+          <t>9,72; 12,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,81</t>
+          <t>17,63; 23,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,74</t>
+          <t>5,71; 9,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,82</t>
+          <t>5,77; 10,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 29,56</t>
+          <t>23,25; 29,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 23,89</t>
+          <t>17,91; 24,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,97</t>
+          <t>9,14; 13,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,37; 25,66</t>
+          <t>21,09; 25,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 15,95</t>
+          <t>12,46; 16,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,16</t>
+          <t>8,12; 11,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 19,98</t>
+          <t>15,31; 19,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,21</t>
+          <t>7,37; 11,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,1</t>
+          <t>8,27; 12,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,46</t>
+          <t>22,01; 27,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,85; 23,94</t>
+          <t>18,72; 23,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,45; 20,22</t>
+          <t>15,35; 20,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 23,09</t>
+          <t>19,58; 23,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 17,15</t>
+          <t>13,74; 16,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 15,85</t>
+          <t>12,52; 15,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,06; 17,81</t>
+          <t>15,31; 17,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 10,92</t>
+          <t>8,75; 10,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,78</t>
+          <t>7,69; 9,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,84; 24,85</t>
+          <t>21,86; 24,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,87; 21,64</t>
+          <t>18,76; 21,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 16,36</t>
+          <t>13,85; 16,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 20,99</t>
+          <t>19,06; 20,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 15,92</t>
+          <t>14,14; 15,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 12,71</t>
+          <t>11,24; 12,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/DC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 26,84</t>
+          <t>11,87; 26,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,43</t>
+          <t>5,87; 16,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 15,3</t>
+          <t>4,12; 15,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 35,95</t>
+          <t>18,52; 34,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,87; 26,24</t>
+          <t>12,02; 25,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 31,88</t>
+          <t>14,68; 30,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 25,89</t>
+          <t>10,48; 24,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,39; 46,12</t>
+          <t>32,91; 46,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 23,66</t>
+          <t>13,86; 23,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,59; 21,45</t>
+          <t>12,13; 21,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,5</t>
+          <t>8,8; 17,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,34; 39,27</t>
+          <t>29,09; 40,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,11</t>
+          <t>12,39; 18,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 15,36</t>
+          <t>9,99; 15,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,6</t>
+          <t>6,13; 10,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 25,95</t>
+          <t>18,99; 26,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,67</t>
+          <t>18,14; 24,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 23,63</t>
+          <t>16,87; 23,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,67</t>
+          <t>14,11; 20,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,35; 39,59</t>
+          <t>30,91; 39,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 20,4</t>
+          <t>15,87; 20,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 18,46</t>
+          <t>14,04; 18,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,1</t>
+          <t>10,6; 14,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,49; 31,86</t>
+          <t>26,53; 31,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,7</t>
+          <t>10,96; 15,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,79</t>
+          <t>8,85; 12,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 10,04</t>
+          <t>6,51; 10,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 21,71</t>
+          <t>15,66; 21,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 25,04</t>
+          <t>19,4; 24,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,04; 21,28</t>
+          <t>15,96; 20,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 16,56</t>
+          <t>11,99; 16,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,86; 41,39</t>
+          <t>35,81; 41,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 19,67</t>
+          <t>15,94; 19,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,96; 16,32</t>
+          <t>13,17; 16,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 12,66</t>
+          <t>9,77; 12,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,15; 30,78</t>
+          <t>26,21; 30,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,63; 23,65</t>
+          <t>17,59; 23,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,81</t>
+          <t>5,54; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,04</t>
+          <t>5,79; 9,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,06; 26,67</t>
+          <t>20,09; 26,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,25; 29,57</t>
+          <t>22,95; 29,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,04</t>
+          <t>17,67; 23,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,81</t>
+          <t>9,14; 13,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,89; 65,75</t>
+          <t>40,11; 66,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,09; 25,76</t>
+          <t>21,31; 25,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,1</t>
+          <t>12,28; 15,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,3</t>
+          <t>8,02; 11,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,48; 51,34</t>
+          <t>31,58; 50,15</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,31; 19,89</t>
+          <t>15,23; 20,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,23</t>
+          <t>7,41; 11,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,25</t>
+          <t>8,33; 12,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 26,13</t>
+          <t>20,52; 26,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,01; 27,19</t>
+          <t>21,9; 27,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 23,82</t>
+          <t>18,74; 23,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 20,4</t>
+          <t>15,33; 20,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,38; 41,71</t>
+          <t>35,11; 41,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,58; 23,03</t>
+          <t>19,52; 23,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 16,99</t>
+          <t>13,88; 17,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,52; 15,85</t>
+          <t>12,49; 15,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,12; 33,51</t>
+          <t>29,29; 33,77</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,31; 17,83</t>
+          <t>15,17; 17,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 10,88</t>
+          <t>8,69; 10,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,69</t>
+          <t>7,73; 9,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,1; 23,25</t>
+          <t>20,27; 23,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,86; 24,87</t>
+          <t>22,02; 25,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,76; 21,56</t>
+          <t>18,74; 21,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,85; 16,63</t>
+          <t>13,89; 16,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,94; 46,42</t>
+          <t>37,95; 46,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,06; 20,96</t>
+          <t>18,87; 20,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,14; 15,9</t>
+          <t>14,2; 15,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 12,81</t>
+          <t>11,21; 12,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,03; 35,7</t>
+          <t>30,07; 35,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>29,19%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 26,42</t>
+          <t>13,35; 19,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 16,56</t>
+          <t>9,92; 15,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 15,0</t>
+          <t>7,72; 12,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,52; 34,68</t>
+          <t>18,94; 25,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 25,88</t>
+          <t>18,65; 24,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 30,68</t>
+          <t>22,38; 29,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 24,87</t>
+          <t>15,92; 22,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,91; 46,63</t>
+          <t>28,2; 38,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 23,84</t>
+          <t>16,75; 20,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 21,57</t>
+          <t>17,01; 21,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 17,77</t>
+          <t>12,79; 16,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 40,03</t>
+          <t>26,04; 31,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,4</t>
+          <t>12,29; 16,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,44</t>
+          <t>9,52; 13,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,77</t>
+          <t>7,23; 10,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 26,04</t>
+          <t>8,49; 20,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 24,78</t>
+          <t>23,28; 28,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 23,43</t>
+          <t>19,24; 24,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,58</t>
+          <t>14,93; 20,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 39,44</t>
+          <t>36,05; 41,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,43</t>
+          <t>18,48; 22,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 18,51</t>
+          <t>15,35; 18,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,6; 14,87</t>
+          <t>11,7; 14,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,53; 31,95</t>
+          <t>17,36; 29,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,43</t>
+          <t>18,51; 24,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,96</t>
+          <t>5,83; 9,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,04</t>
+          <t>6,51; 10,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 21,82</t>
+          <t>19,77; 26,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,87</t>
+          <t>31,24; 38,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 20,93</t>
+          <t>20,58; 26,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,62</t>
+          <t>11,95; 17,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,81; 41,28</t>
+          <t>38,19; 75,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 19,59</t>
+          <t>25,94; 30,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 16,29</t>
+          <t>13,91; 17,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,59</t>
+          <t>9,94; 13,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 30,88</t>
+          <t>30,44; 60,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>32,84%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 23,67</t>
+          <t>16,36; 21,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,64</t>
+          <t>7,89; 11,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,59</t>
+          <t>8,87; 13,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,6</t>
+          <t>20,4; 26,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,95; 29,76</t>
+          <t>26,31; 31,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 23,7</t>
+          <t>21,82; 26,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 13,75</t>
+          <t>19,32; 24,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,11; 66,69</t>
+          <t>36,4; 54,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 25,68</t>
+          <t>22,37; 26,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 15,98</t>
+          <t>15,73; 19,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,17</t>
+          <t>14,84; 18,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,58; 50,15</t>
+          <t>29,67; 41,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>31,66%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,09</t>
+          <t>16,27; 19,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,18</t>
+          <t>9,21; 11,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,36</t>
+          <t>8,54; 10,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,52; 26,01</t>
+          <t>15,67; 22,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,1</t>
+          <t>26,41; 29,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,74; 23,74</t>
+          <t>22,37; 25,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,25</t>
+          <t>17,06; 19,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,11; 41,15</t>
+          <t>37,67; 52,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,52; 23,08</t>
+          <t>21,63; 23,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,88; 17,04</t>
+          <t>16,26; 18,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 15,69</t>
+          <t>13,27; 14,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,29; 33,77</t>
+          <t>28,22; 37,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>16,44%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>21,76%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,11%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>15,12%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40,32%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19,99%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>15,04%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>31,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15,17; 17,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,69; 10,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,73; 9,69</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>20,27; 23,46</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,02; 25,19</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,74; 21,46</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>13,89; 16,36</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>37,95; 46,18</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18,87; 20,89</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>14,2; 15,91</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>11,21; 12,75</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>30,07; 35,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/DC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 19,15</t>
+          <t>13,47; 19,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,37</t>
+          <t>10,01; 14,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,03</t>
+          <t>7,66; 12,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 25,39</t>
+          <t>19,17; 25,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,65; 24,87</t>
+          <t>18,6; 24,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,15</t>
+          <t>22,32; 29,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,23</t>
+          <t>16,29; 22,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,2; 38,7</t>
+          <t>26,05; 38,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 20,89</t>
+          <t>16,84; 21,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 21,18</t>
+          <t>16,82; 21,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,59</t>
+          <t>12,62; 16,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,74</t>
+          <t>25,25; 31,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,97</t>
+          <t>12,63; 17,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,81</t>
+          <t>9,46; 13,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,88</t>
+          <t>7,38; 11,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 20,2</t>
+          <t>8,6; 20,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 28,91</t>
+          <t>23,39; 28,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 24,81</t>
+          <t>19,61; 24,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 20,02</t>
+          <t>15,05; 19,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,05; 41,52</t>
+          <t>36,21; 41,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 22,34</t>
+          <t>18,38; 22,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,35; 18,69</t>
+          <t>15,21; 18,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 14,8</t>
+          <t>11,75; 14,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,36; 29,83</t>
+          <t>17,24; 29,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 24,95</t>
+          <t>18,15; 24,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,89</t>
+          <t>5,82; 10,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,53</t>
+          <t>6,55; 10,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 26,32</t>
+          <t>19,56; 26,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,24; 38,54</t>
+          <t>31,37; 38,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,77</t>
+          <t>20,33; 26,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,36</t>
+          <t>12,05; 16,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,19; 75,64</t>
+          <t>38,11; 74,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,94; 30,71</t>
+          <t>25,95; 30,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 17,73</t>
+          <t>13,88; 17,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,3</t>
+          <t>9,73; 13,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,44; 60,1</t>
+          <t>30,57; 60,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,36; 21,24</t>
+          <t>16,58; 21,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,72</t>
+          <t>7,74; 11,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,01</t>
+          <t>8,75; 12,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,4; 26,08</t>
+          <t>20,24; 25,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 31,87</t>
+          <t>26,41; 32,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 26,96</t>
+          <t>21,79; 27,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 24,64</t>
+          <t>19,32; 24,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,4; 54,75</t>
+          <t>36,16; 53,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,37; 26,09</t>
+          <t>22,33; 26,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 19,14</t>
+          <t>15,77; 19,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 18,36</t>
+          <t>14,75; 18,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,67; 41,55</t>
+          <t>29,75; 42,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 19,01</t>
+          <t>16,32; 18,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 11,44</t>
+          <t>9,4; 11,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,54; 10,6</t>
+          <t>8,43; 10,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,67; 22,38</t>
+          <t>16,15; 22,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,41; 29,58</t>
+          <t>26,44; 29,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,18</t>
+          <t>22,43; 25,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 19,8</t>
+          <t>16,94; 19,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,67; 52,79</t>
+          <t>37,77; 52,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,63; 23,74</t>
+          <t>21,7; 23,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 18,17</t>
+          <t>16,24; 18,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,27; 14,91</t>
+          <t>13,14; 14,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,22; 37,94</t>
+          <t>28,45; 38,85</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>111115</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>87000</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65926</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>141352</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>148835</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>179891</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>128949</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>255886</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>259950</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>266891</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>194876</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>397239</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>93451; 133208</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70423; 104570</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51684; 83624</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121811; 161808</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>128050; 169294</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>155556; 205444</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>109581; 148151</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>188980; 282332</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>232821; 291668</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>235531; 296048</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>170070; 223208</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>343643; 428565</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>140658</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>117886</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91967</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>182735</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>250743</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>227738</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>181136</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>372361</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>391401</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>345625</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>273102</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>555097</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>121461; 164628</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>96326; 141299</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75460; 113786</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>102608; 241639</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>226512; 278746</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>202421; 256187</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>156921; 207589</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>347135; 399297</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>354696; 427218</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>311898; 384337</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>242704; 306631</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>370954; 637923</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>144663</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58482</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63336</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>161505</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>239554</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>183264</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>113799</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>493128</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>384216</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>241746</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>177135</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>654633</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>123119; 165223</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44111; 77590</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49781; 81014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>137803; 186569</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>214529; 263635</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>157997; 206151</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94581; 132533</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>355706; 695192</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>353572; 417154</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>213007; 274081</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>150324; 201477</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>500762; 989681</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>177297</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>90909</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>100462</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>213097</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>302465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>257390</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>227297</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>450798</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>479762</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>348299</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>327759</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>663895</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>156217; 202804</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73328; 109673</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>82034; 120234</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>187569; 240707</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>274306; 332589</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>229261; 288943</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>201616; 258881</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>395960; 583018</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>442416; 518181</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>315360; 383597</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>292256; 362874</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>601405; 864231</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2204</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>573733</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>354278</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>321691</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>698690</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>941596</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>848283</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>651181</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1572173</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1515329</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1202561</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>972872</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2270863</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>534641; 619071</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>322100; 392294</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>286053; 360552</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>558646; 774040</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>893553; 999137</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>798128; 901736</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>600473; 694991</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1402061; 1966429</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1444561; 1583231</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1134634; 1266868</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>911753; 1030591</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2040610; 2786276</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>